--- a/altium/altium_main/Nixie_Motherboard/bom.xlsx
+++ b/altium/altium_main/Nixie_Motherboard/bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sztuka\git\Nixie_clock\altium\altium_main\Nixie_Motherboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sztuka\Documents\git\nixie_clock\altium\altium_main\Nixie_Motherboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A4C73B-0997-4019-93C1-8694A0638374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10463C0-A888-4B5E-94E9-F361A9A9CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>DESIGNATOR</t>
   </si>
@@ -160,6 +160,21 @@
   </si>
   <si>
     <t>QTY with extras for mishaps</t>
+  </si>
+  <si>
+    <t>Extra caps for crystal</t>
+  </si>
+  <si>
+    <t>C3034512</t>
+  </si>
+  <si>
+    <t>C3034517</t>
+  </si>
+  <si>
+    <t>C115539</t>
+  </si>
+  <si>
+    <t>C237417</t>
   </si>
 </sst>
 </file>
@@ -488,19 +503,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -522,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -533,7 +548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -544,7 +559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -555,7 +570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -566,7 +581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -577,7 +592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -588,7 +603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -599,7 +614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -610,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -621,7 +636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -632,7 +647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -643,7 +658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -654,7 +669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -665,7 +680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -676,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -687,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -698,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -709,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -720,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -731,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -740,6 +755,41 @@
       </c>
       <c r="C22">
         <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
